--- a/Measurements/transfer charasteristic output voltage with regulator and Z Diode.xlsx
+++ b/Measurements/transfer charasteristic output voltage with regulator and Z Diode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Daten\1_HTL\4AHELS\HWE\RF_Id\Measurements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_Daten\1_HTL\4AHELS\HWE\RF_Id\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D9596-5CC1-4C4F-AEC4-1F580BC49F97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63FB57C-18D5-4B2A-A08A-377A53DB2FAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{848822A3-4D3B-4176-AC7F-A07A551B570F}"/>
+    <workbookView minimized="1" xWindow="18729" yWindow="2906" windowWidth="24685" windowHeight="13148" xr2:uid="{848822A3-4D3B-4176-AC7F-A07A551B570F}"/>
   </bookViews>
   <sheets>
     <sheet name="new caps" sheetId="3" r:id="rId1"/>
@@ -127,21 +127,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Transfer characteristic with regulation and Z-Diode</a:t>
+              <a:t>Übertragungsfunktion Tag Spannungsversorgung</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -159,16 +156,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -188,7 +182,7 @@
             <c:v>with Regulation</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -198,15 +192,37 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                    <a:alpha val="70000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -302,7 +318,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -314,18 +330,66 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="5000"/>
                   <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Iout</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00\ &quot;mA&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -333,7 +397,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -344,10 +413,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -372,7 +438,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -384,18 +450,66 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="5000"/>
                   <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Vout</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00\ &quot;V&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -403,7 +517,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -414,10 +533,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -456,7 +572,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -524,33 +640,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -558,17 +668,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -576,7 +683,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -591,10 +698,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -603,18 +707,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="dk2">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -623,49 +731,37 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -675,34 +771,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="75000"/>
-            <a:alpha val="70000"/>
-          </a:schemeClr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -718,12 +811,273 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -733,307 +1087,32 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="75000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1382,12 +1461,12 @@
   <dimension ref="B2:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1481,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1500,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>5.6</v>
       </c>
@@ -1440,7 +1519,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>5.6</v>
       </c>
@@ -1459,7 +1538,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>5.6</v>
       </c>
@@ -1478,7 +1557,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1497,7 +1576,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -1505,7 +1584,7 @@
         <v>20.67</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>2.6</v>
       </c>
@@ -1513,7 +1592,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>0.6</v>
       </c>
@@ -1521,47 +1600,47 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>5.28</v>
       </c>
@@ -1580,7 +1659,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>5.28</v>
       </c>
@@ -1588,7 +1667,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>5.28</v>
       </c>
@@ -1596,7 +1675,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>5.28</v>
       </c>
@@ -1604,7 +1683,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>5.28</v>
       </c>
@@ -1612,7 +1691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>5.28</v>
       </c>
@@ -1620,7 +1699,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>5.2</v>
       </c>
@@ -1628,7 +1707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>3.84</v>
       </c>
@@ -1636,7 +1715,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>3.52</v>
       </c>
@@ -1644,7 +1723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>0.4</v>
       </c>
